--- a/matthias_SA/volllast/Volllastkennlinie_New_Holland_T5.140.xlsx
+++ b/matthias_SA/volllast/Volllastkennlinie_New_Holland_T5.140.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernerfachhochschule-my.sharepoint.com/personal/ramem2_bfh_ch/Documents/Desktop/SA Schleppmomente/Vollastkennlinien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9C49D4-443E-46C2-B0F7-F3288B3BF1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{5F9C49D4-443E-46C2-B0F7-F3288B3BF1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771521FD-EEF3-4582-B6F5-106127D37F1B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00AB1F2C-EFFB-4372-95F1-83A046AD2A49}"/>
   </bookViews>
@@ -94,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8EBDB-088D-497D-8D04-66D93A55BF66}">
   <dimension ref="C4:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -417,7 +421,7 @@
         <v>1246</v>
       </c>
       <c r="D5">
-        <v>559.80000000000007</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.45">
@@ -425,7 +429,7 @@
         <v>1296</v>
       </c>
       <c r="D6">
-        <v>582.30000000000007</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.45">
@@ -433,7 +437,7 @@
         <v>1346</v>
       </c>
       <c r="D7">
-        <v>604.80000000000007</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.45">
@@ -441,7 +445,7 @@
         <v>1396</v>
       </c>
       <c r="D8">
-        <v>627.30000000000007</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.45">
@@ -449,7 +453,7 @@
         <v>1446</v>
       </c>
       <c r="D9">
-        <v>649.80000000000007</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.45">
@@ -457,7 +461,7 @@
         <v>1496</v>
       </c>
       <c r="D10">
-        <v>672.30000000000007</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.45">
@@ -465,7 +469,7 @@
         <v>1549</v>
       </c>
       <c r="D11">
-        <v>695.7</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.45">
@@ -473,7 +477,7 @@
         <v>1599</v>
       </c>
       <c r="D12">
-        <v>718.2</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.45">
@@ -481,7 +485,7 @@
         <v>1647</v>
       </c>
       <c r="D13">
-        <v>739.80000000000007</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.45">
@@ -489,7 +493,7 @@
         <v>1697</v>
       </c>
       <c r="D14">
-        <v>762.30000000000007</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.45">
@@ -497,7 +501,7 @@
         <v>1747</v>
       </c>
       <c r="D15">
-        <v>784.80000000000007</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.45">
@@ -505,7 +509,7 @@
         <v>1795</v>
       </c>
       <c r="D16">
-        <v>806.4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
@@ -513,7 +517,7 @@
         <v>1847</v>
       </c>
       <c r="D17">
-        <v>829.80000000000007</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
@@ -521,7 +525,7 @@
         <v>1897</v>
       </c>
       <c r="D18">
-        <v>852.30000000000007</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.45">
@@ -529,7 +533,7 @@
         <v>1947</v>
       </c>
       <c r="D19">
-        <v>874.80000000000007</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.45">
@@ -537,7 +541,7 @@
         <v>1999</v>
       </c>
       <c r="D20">
-        <v>898.2</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.45">
@@ -545,7 +549,7 @@
         <v>2047</v>
       </c>
       <c r="D21">
-        <v>919.80000000000007</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.45">
@@ -553,7 +557,7 @@
         <v>2095</v>
       </c>
       <c r="D22">
-        <v>941.4</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.45">
@@ -561,7 +565,7 @@
         <v>2148</v>
       </c>
       <c r="D23">
-        <v>964.80000000000007</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.45">
@@ -569,7 +573,7 @@
         <v>2198</v>
       </c>
       <c r="D24">
-        <v>987.30000000000007</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.45">
@@ -577,7 +581,7 @@
         <v>2246</v>
       </c>
       <c r="D25">
-        <v>1008.9</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.45">
@@ -585,7 +589,7 @@
         <v>2272</v>
       </c>
       <c r="D26">
-        <v>1020.6</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.45">
@@ -593,7 +597,7 @@
         <v>2298</v>
       </c>
       <c r="D27">
-        <v>1032.3</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.45">
@@ -601,7 +605,7 @@
         <v>2308</v>
       </c>
       <c r="D28">
-        <v>1036.8</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.45">
@@ -609,7 +613,7 @@
         <v>2322</v>
       </c>
       <c r="D29">
-        <v>1043.1000000000001</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.45">
@@ -617,7 +621,7 @@
         <v>2334</v>
       </c>
       <c r="D30">
-        <v>1048.5</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.45">
@@ -625,7 +629,7 @@
         <v>2348</v>
       </c>
       <c r="D31">
-        <v>1054.8</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.45">
@@ -633,7 +637,7 @@
         <v>2364</v>
       </c>
       <c r="D32">
-        <v>1062</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.45">
@@ -641,7 +645,7 @@
         <v>2374</v>
       </c>
       <c r="D33">
-        <v>1066.5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.45">
@@ -649,7 +653,7 @@
         <v>2388</v>
       </c>
       <c r="D34">
-        <v>1072.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.45">
@@ -657,7 +661,7 @@
         <v>2398</v>
       </c>
       <c r="D35">
-        <v>1077.3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.45">
@@ -665,7 +669,7 @@
         <v>2402</v>
       </c>
       <c r="D36">
-        <v>1079.1000000000001</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
